--- a/script_procesarNotas_carga_masiva/Notas_Periodos_ac.xlsx
+++ b/script_procesarNotas_carga_masiva/Notas_Periodos_ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\process_python_cpcs\script_procesarNotas_carga_masiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55E3671-B93F-4E2B-BCAB-52F85E72DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA75F4AB-93C9-49F9-8AAF-D80A8B5A9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3967,7 +3967,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3977,6 +3977,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4008,12 +4014,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4320,10 +4327,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="A26:XFD26"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6800,68 +6807,68 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D39" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E39">
-        <v>4.2</v>
-      </c>
-      <c r="F39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I39">
-        <v>4.3</v>
-      </c>
-      <c r="J39">
-        <v>4.2</v>
-      </c>
-      <c r="K39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L39">
-        <v>4.2</v>
-      </c>
-      <c r="M39">
+      <c r="D39" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H39" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="M39" s="3">
         <v>3.8</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>3.9</v>
       </c>
-      <c r="O39">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P39">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>4.7</v>
-      </c>
-      <c r="S39">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T39">
-        <v>4.3</v>
-      </c>
-      <c r="U39">
+      <c r="O39" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P39" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="S39" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T39" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="U39" s="3">
         <v>4.5</v>
       </c>
     </row>
@@ -6930,68 +6937,68 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D41" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E41">
-        <v>4</v>
-      </c>
-      <c r="F41">
+      <c r="D41" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
         <v>3.7</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>3.6</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>3.7</v>
       </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>4.3</v>
-      </c>
-      <c r="K41">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L41">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M41">
+      <c r="I41" s="2">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="K41" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M41" s="2">
         <v>3.6</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>3.7</v>
       </c>
-      <c r="O41">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P41">
-        <v>4.3</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T41">
+      <c r="O41" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P41" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S41" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T41" s="2">
         <v>3.3</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/script_procesarNotas_carga_masiva/Notas_Periodos_ac.xlsx
+++ b/script_procesarNotas_carga_masiva/Notas_Periodos_ac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\process_python_cpcs\script_procesarNotas_carga_masiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA75F4AB-93C9-49F9-8AAF-D80A8B5A9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4C890-3675-4F84-B8E5-420CE1C3720F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4327,10 +4327,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="A41:XFD41"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149:XFD149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7327,68 +7327,68 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D47" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E47" s="3">
         <v>3.3</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>3.2</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>3.1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>3.3</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>3.4</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>3.3</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>3.6</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>3.1</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>3.3</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>3.4</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="3">
         <v>3.2</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>3.4</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>3.3</v>
       </c>
-      <c r="S47">
-        <v>4</v>
-      </c>
-      <c r="T47">
+      <c r="S47" s="3">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>3</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="3">
         <v>3.1</v>
       </c>
     </row>
@@ -8562,68 +8562,68 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D66" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E66">
-        <v>4.7</v>
-      </c>
-      <c r="F66">
-        <v>4.8</v>
-      </c>
-      <c r="G66">
-        <v>4.8</v>
-      </c>
-      <c r="H66">
-        <v>4.8</v>
-      </c>
-      <c r="I66">
-        <v>4.8</v>
-      </c>
-      <c r="J66">
-        <v>4.8</v>
-      </c>
-      <c r="K66">
-        <v>4.7</v>
-      </c>
-      <c r="L66">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M66">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N66">
-        <v>4.3</v>
-      </c>
-      <c r="O66">
-        <v>4.8</v>
-      </c>
-      <c r="P66">
-        <v>4.7</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
+      <c r="D66" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="I66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K66" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="L66" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M66" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N66" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="O66" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="P66" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
+      <c r="R66" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="2">
         <v>5</v>
       </c>
-      <c r="T66">
-        <v>4.7</v>
-      </c>
-      <c r="U66">
+      <c r="T66" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="U66" s="2">
         <v>5</v>
       </c>
     </row>
@@ -9927,68 +9927,68 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="D87" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E87">
+      <c r="D87" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E87" s="3">
         <v>3.6</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>3.6</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>3.6</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>3.5</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>3.6</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="3">
         <v>3.9</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="3">
         <v>3.3</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>3.6</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="3">
         <v>3.6</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="3">
         <v>3.7</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="3">
         <v>3.7</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="3">
         <v>3.6</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
         <v>3.3</v>
       </c>
-      <c r="S87">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T87">
+      <c r="S87" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T87" s="3">
         <v>3.4</v>
       </c>
-      <c r="U87">
+      <c r="U87" s="3">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -10577,68 +10577,68 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D97" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E97">
-        <v>4.5</v>
-      </c>
-      <c r="F97">
-        <v>4.5</v>
-      </c>
-      <c r="G97">
-        <v>4.5</v>
-      </c>
-      <c r="H97">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I97">
-        <v>4.8</v>
-      </c>
-      <c r="J97">
-        <v>4.7</v>
-      </c>
-      <c r="K97">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L97">
-        <v>4.8</v>
-      </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
-      <c r="N97">
-        <v>4.3</v>
-      </c>
-      <c r="O97">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="P97">
-        <v>4.7</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S97">
-        <v>4.5</v>
-      </c>
-      <c r="T97">
-        <v>4.5</v>
-      </c>
-      <c r="U97">
+      <c r="D97" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H97" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I97" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="K97" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L97" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="M97" s="3">
+        <v>4</v>
+      </c>
+      <c r="N97" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="O97" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P97" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="T97" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="U97" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -11422,68 +11422,68 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D110" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E110">
+      <c r="D110" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E110" s="2">
         <v>3.8</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>3.7</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>3.9</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <v>3.5</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <v>3.7</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="2">
         <v>3.9</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="2">
         <v>3.6</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="2">
         <v>3.7</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="2">
         <v>3.5</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="2">
         <v>3.4</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="2">
         <v>3.9</v>
       </c>
-      <c r="P110">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
+      <c r="P110" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>0</v>
+      </c>
+      <c r="R110" s="2">
         <v>3.8</v>
       </c>
-      <c r="S110">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T110">
+      <c r="S110" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T110" s="2">
         <v>3.8</v>
       </c>
-      <c r="U110">
+      <c r="U110" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -11812,68 +11812,68 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D116" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E116">
+      <c r="D116" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E116" s="2">
         <v>3.7</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>3.5</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>3.3</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="2">
         <v>3.7</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="2">
         <v>3.7</v>
       </c>
-      <c r="J116">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K116">
+      <c r="J116" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K116" s="2">
         <v>3.5</v>
       </c>
-      <c r="L116">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M116">
+      <c r="L116" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M116" s="2">
         <v>3.4</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="2">
         <v>3.7</v>
       </c>
-      <c r="O116">
-        <v>4</v>
-      </c>
-      <c r="P116">
+      <c r="O116" s="2">
+        <v>4</v>
+      </c>
+      <c r="P116" s="2">
         <v>3.9</v>
       </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
+      <c r="Q116" s="2">
+        <v>0</v>
+      </c>
+      <c r="R116" s="2">
         <v>3.2</v>
       </c>
-      <c r="S116">
+      <c r="S116" s="2">
         <v>3.9</v>
       </c>
-      <c r="T116">
+      <c r="T116" s="2">
         <v>3</v>
       </c>
-      <c r="U116">
+      <c r="U116" s="2">
         <v>4.2</v>
       </c>
     </row>
@@ -12202,68 +12202,68 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D122" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E122" s="2">
         <v>3.6</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="2">
         <v>3.4</v>
       </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
         <v>3.6</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="2">
         <v>3.5</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="2">
         <v>3.6</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="2">
         <v>3.4</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="2">
         <v>3.7</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="2">
         <v>3.6</v>
       </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-      <c r="R122">
+      <c r="P122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2">
         <v>3.4</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="2">
         <v>3.9</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="2">
         <v>3.3</v>
       </c>
-      <c r="U122">
+      <c r="U122" s="2">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -12462,68 +12462,68 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D126" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E126">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F126">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K126">
-        <v>4.7</v>
-      </c>
-      <c r="L126">
-        <v>4.7</v>
-      </c>
-      <c r="M126">
-        <v>4.5</v>
-      </c>
-      <c r="N126">
-        <v>4.5</v>
-      </c>
-      <c r="O126">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>0</v>
-      </c>
-      <c r="R126">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="S126">
-        <v>4.7</v>
-      </c>
-      <c r="T126">
-        <v>4.8</v>
-      </c>
-      <c r="U126">
+      <c r="D126" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E126" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F126" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K126" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="L126" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="M126" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N126" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O126" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P126" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S126" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="T126" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="U126" s="2">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -13112,68 +13112,68 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="D136" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E136">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F136">
-        <v>4.7</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>4.8</v>
-      </c>
-      <c r="K136">
-        <v>4.5</v>
-      </c>
-      <c r="L136">
+      <c r="D136" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E136" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F136" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="K136" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L136" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M136">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="N136">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O136">
-        <v>4.7</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>4.5</v>
-      </c>
-      <c r="S136">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T136">
+      <c r="M136" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="N136" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O136" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="P136" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>0</v>
+      </c>
+      <c r="R136" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S136" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T136" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="U136">
+      <c r="U136" s="2">
         <v>4.7</v>
       </c>
     </row>
@@ -13957,68 +13957,68 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D149" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E149">
-        <v>4.3</v>
-      </c>
-      <c r="F149">
-        <v>4</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>4.2</v>
-      </c>
-      <c r="K149">
-        <v>4.7</v>
-      </c>
-      <c r="L149">
-        <v>4.2</v>
-      </c>
-      <c r="M149">
-        <v>4.2</v>
-      </c>
-      <c r="N149">
-        <v>4.2</v>
-      </c>
-      <c r="O149">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>0</v>
-      </c>
-      <c r="R149">
-        <v>4.3</v>
-      </c>
-      <c r="S149">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T149">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="U149">
+      <c r="D149" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E149" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>4</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K149" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="L149" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="M149" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="N149" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="O149" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P149" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>0</v>
+      </c>
+      <c r="R149" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="S149" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T149" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U149" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
